--- a/database/industries/zeraat/simorgh/official/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/official/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0849CA63-75F0-469B-A682-32E1085D94D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,7 +267,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -278,7 +279,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -325,6 +326,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -360,6 +378,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,18 +546,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -532,7 +567,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -544,7 +579,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -556,7 +591,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -566,7 +601,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -578,7 +613,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -590,7 +625,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -600,7 +635,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -622,7 +657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -632,7 +667,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -654,7 +689,7 @@
         <v>-25679</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
@@ -676,7 +711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>11</v>
       </c>
@@ -698,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
@@ -720,7 +755,7 @@
         <v>-7053</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
@@ -742,7 +777,7 @@
         <v>-3407</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
@@ -764,7 +799,7 @@
         <v>-3142</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>15</v>
       </c>
@@ -786,7 +821,7 @@
         <v>-8753</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -808,7 +843,7 @@
         <v>-243371</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
@@ -830,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>18</v>
       </c>
@@ -852,7 +887,7 @@
         <v>-263665</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>19</v>
       </c>
@@ -874,7 +909,7 @@
         <v>-555070</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -884,7 +919,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -894,7 +929,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -904,7 +939,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
@@ -926,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -936,7 +971,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>21</v>
       </c>
@@ -958,7 +993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -980,7 +1015,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1034,7 +1069,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1044,7 +1079,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1054,7 +1089,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>

--- a/database/industries/zeraat/simorgh/official/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0849CA63-75F0-469B-A682-32E1085D94D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F44E1-9A91-4261-8CC1-FF64CCB2569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,6 +34,18 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -47,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -547,17 +562,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I33"/>
+  <dimension ref="B1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="9" width="20" customWidth="1"/>
+    <col min="3" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -566,8 +581,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -578,8 +598,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,8 +615,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -600,8 +630,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -612,8 +647,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -624,8 +664,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -634,8 +679,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -656,8 +706,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -666,32 +731,52 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>19302</v>
+      </c>
+      <c r="F10" s="9">
+        <v>6689</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6262</v>
+      </c>
+      <c r="H10" s="9">
+        <v>14279</v>
+      </c>
+      <c r="I10" s="9">
         <v>15612</v>
       </c>
-      <c r="F10" s="9">
-        <v>-36153</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="J10" s="9">
+        <v>11843</v>
+      </c>
+      <c r="K10" s="9">
         <v>13049</v>
       </c>
-      <c r="H10" s="9">
+      <c r="L10" s="9">
         <v>12630</v>
       </c>
-      <c r="I10" s="9">
+      <c r="M10" s="9">
         <v>-25679</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>58084</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -710,142 +795,247 @@
       <c r="I11" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>0</v>
+        <v>15051</v>
       </c>
       <c r="F12" s="9">
-        <v>0</v>
+        <v>-22171</v>
       </c>
       <c r="G12" s="9">
-        <v>0</v>
+        <v>8031</v>
       </c>
       <c r="H12" s="9">
-        <v>0</v>
+        <v>-8031</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9">
+        <v>0</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>4216</v>
+      </c>
+      <c r="F13" s="11">
+        <v>838</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5895</v>
+      </c>
+      <c r="I13" s="11">
         <v>-5895</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="J13" s="11">
+        <v>12277</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
         <v>7053</v>
       </c>
-      <c r="I13" s="11">
+      <c r="M13" s="11">
         <v>-7053</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N13" s="11">
+        <v>10630</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>-1410</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1273</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1701</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1366</v>
+      </c>
+      <c r="I14" s="9">
         <v>1798</v>
       </c>
-      <c r="F14" s="9">
-        <v>-4865</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="J14" s="9">
+        <v>1762</v>
+      </c>
+      <c r="K14" s="9">
         <v>1492</v>
       </c>
-      <c r="H14" s="9">
+      <c r="L14" s="9">
         <v>1915</v>
       </c>
-      <c r="I14" s="9">
+      <c r="M14" s="9">
         <v>-3407</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="9">
+        <v>7923</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>-8342</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1574</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1450</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1416</v>
+      </c>
+      <c r="I15" s="11">
         <v>1777</v>
       </c>
-      <c r="F15" s="11">
-        <v>-4643</v>
-      </c>
-      <c r="G15" s="11">
+      <c r="J15" s="11">
+        <v>1723</v>
+      </c>
+      <c r="K15" s="11">
         <v>2021</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>1121</v>
       </c>
-      <c r="I15" s="11">
+      <c r="M15" s="11">
         <v>-3142</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="11">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>5645</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3123</v>
+      </c>
+      <c r="G16" s="9">
+        <v>2999</v>
+      </c>
+      <c r="H16" s="9">
+        <v>2643</v>
+      </c>
+      <c r="I16" s="9">
         <v>2941</v>
       </c>
-      <c r="F16" s="9">
-        <v>-8583</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="J16" s="9">
+        <v>5597</v>
+      </c>
+      <c r="K16" s="9">
         <v>39201</v>
       </c>
-      <c r="H16" s="9">
+      <c r="L16" s="9">
         <v>-30448</v>
       </c>
-      <c r="I16" s="9">
+      <c r="M16" s="9">
         <v>-8753</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N16" s="9">
+        <v>18690</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
+        <v>76275</v>
+      </c>
+      <c r="F17" s="11">
+        <v>81943</v>
+      </c>
+      <c r="G17" s="11">
+        <v>71309</v>
+      </c>
+      <c r="H17" s="11">
+        <v>77261</v>
+      </c>
+      <c r="I17" s="11">
         <v>78509</v>
       </c>
-      <c r="F17" s="11">
-        <v>-227079</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="J17" s="11">
+        <v>269853</v>
+      </c>
+      <c r="K17" s="11">
         <v>110977</v>
       </c>
-      <c r="H17" s="11">
+      <c r="L17" s="11">
         <v>132394</v>
       </c>
-      <c r="I17" s="11">
+      <c r="M17" s="11">
         <v>-243371</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>761165</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -864,52 +1054,97 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
+        <v>21261</v>
+      </c>
+      <c r="F19" s="11">
+        <v>147053</v>
+      </c>
+      <c r="G19" s="11">
+        <v>58608</v>
+      </c>
+      <c r="H19" s="11">
+        <v>80974</v>
+      </c>
+      <c r="I19" s="11">
         <v>93127</v>
       </c>
-      <c r="F19" s="11">
-        <v>-232709</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="J19" s="11">
+        <v>-40090</v>
+      </c>
+      <c r="K19" s="11">
         <v>66595</v>
       </c>
-      <c r="H19" s="11">
+      <c r="L19" s="11">
         <v>197070</v>
       </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
         <v>-263665</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>273650</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
+        <v>131998</v>
+      </c>
+      <c r="F20" s="13">
+        <v>220322</v>
+      </c>
+      <c r="G20" s="13">
+        <v>150360</v>
+      </c>
+      <c r="H20" s="13">
+        <v>175803</v>
+      </c>
+      <c r="I20" s="13">
         <v>187869</v>
       </c>
-      <c r="F20" s="13">
-        <v>-514032</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="J20" s="13">
+        <v>262965</v>
+      </c>
+      <c r="K20" s="13">
         <v>233335</v>
       </c>
-      <c r="H20" s="13">
+      <c r="L20" s="13">
         <v>321735</v>
       </c>
-      <c r="I20" s="13">
+      <c r="M20" s="13">
         <v>-555070</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N20" s="13">
+        <v>1138019</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -918,8 +1153,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -928,8 +1168,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -938,10 +1183,15 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -960,8 +1210,23 @@
       <c r="I24" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -970,96 +1235,161 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="9">
+        <v>27</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="9">
         <v>128</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="9">
+      <c r="K26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="9">
         <v>128</v>
       </c>
-      <c r="I26" s="9">
+      <c r="M26" s="9">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N26" s="9">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="11">
+        <v>27</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="11">
         <v>1571</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="K27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="11">
         <v>1560</v>
       </c>
-      <c r="I27" s="11">
+      <c r="M27" s="11">
         <v>1560</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N27" s="11">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
+        <v>126</v>
+      </c>
+      <c r="F28" s="9">
         <v>47</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="G28" s="9">
+        <v>45</v>
+      </c>
+      <c r="H28" s="9">
+        <v>44</v>
+      </c>
+      <c r="I28" s="9">
+        <v>47</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="9">
         <v>43</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
+        <v>1505</v>
+      </c>
+      <c r="F29" s="11">
         <v>1607</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>22</v>
-      </c>
       <c r="G29" s="11">
+        <v>1685</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1664</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1607</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="11">
         <v>1656</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1068,8 +1398,13 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1078,8 +1413,13 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1088,8 +1428,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1098,6 +1443,11 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/zeraat/simorgh/official/quarterly.xlsx
+++ b/database/industries/zeraat/simorgh/official/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6F44E1-9A91-4261-8CC1-FF64CCB2569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686A09A2-59D8-41D3-AF22-469C80229FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -566,13 +566,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -587,7 +587,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -621,7 +621,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -636,7 +636,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -670,7 +670,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -685,7 +685,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -737,44 +737,44 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>19302</v>
+        <v>6689</v>
       </c>
       <c r="F10" s="9">
-        <v>6689</v>
+        <v>6262</v>
       </c>
       <c r="G10" s="9">
-        <v>6262</v>
+        <v>14279</v>
       </c>
       <c r="H10" s="9">
-        <v>14279</v>
+        <v>15612</v>
       </c>
       <c r="I10" s="9">
-        <v>15612</v>
+        <v>11843</v>
       </c>
       <c r="J10" s="9">
-        <v>11843</v>
+        <v>13049</v>
       </c>
       <c r="K10" s="9">
-        <v>13049</v>
+        <v>12630</v>
       </c>
       <c r="L10" s="9">
-        <v>12630</v>
+        <v>-25679</v>
       </c>
       <c r="M10" s="9">
-        <v>-25679</v>
+        <v>58084</v>
       </c>
       <c r="N10" s="9">
-        <v>58084</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15282</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -811,23 +811,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>15051</v>
+        <v>-22171</v>
       </c>
       <c r="F12" s="9">
-        <v>-22171</v>
+        <v>8031</v>
       </c>
       <c r="G12" s="9">
-        <v>8031</v>
+        <v>-8031</v>
       </c>
       <c r="H12" s="9">
-        <v>-8031</v>
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
@@ -848,192 +848,192 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>4216</v>
+        <v>838</v>
       </c>
       <c r="F13" s="11">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>5895</v>
       </c>
       <c r="H13" s="11">
-        <v>5895</v>
+        <v>-5895</v>
       </c>
       <c r="I13" s="11">
-        <v>-5895</v>
+        <v>12277</v>
       </c>
       <c r="J13" s="11">
-        <v>12277</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>7053</v>
       </c>
       <c r="L13" s="11">
-        <v>7053</v>
+        <v>-7053</v>
       </c>
       <c r="M13" s="11">
-        <v>-7053</v>
+        <v>10630</v>
       </c>
       <c r="N13" s="11">
-        <v>10630</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>-1410</v>
+        <v>1273</v>
       </c>
       <c r="F14" s="9">
-        <v>1273</v>
+        <v>1701</v>
       </c>
       <c r="G14" s="9">
-        <v>1701</v>
+        <v>1366</v>
       </c>
       <c r="H14" s="9">
-        <v>1366</v>
+        <v>1798</v>
       </c>
       <c r="I14" s="9">
-        <v>1798</v>
+        <v>1762</v>
       </c>
       <c r="J14" s="9">
-        <v>1762</v>
+        <v>1492</v>
       </c>
       <c r="K14" s="9">
-        <v>1492</v>
+        <v>1915</v>
       </c>
       <c r="L14" s="9">
-        <v>1915</v>
+        <v>-3407</v>
       </c>
       <c r="M14" s="9">
-        <v>-3407</v>
+        <v>7923</v>
       </c>
       <c r="N14" s="9">
-        <v>7923</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>-8342</v>
+        <v>1574</v>
       </c>
       <c r="F15" s="11">
-        <v>1574</v>
+        <v>1450</v>
       </c>
       <c r="G15" s="11">
-        <v>1450</v>
+        <v>1416</v>
       </c>
       <c r="H15" s="11">
-        <v>1416</v>
+        <v>1777</v>
       </c>
       <c r="I15" s="11">
-        <v>1777</v>
+        <v>1723</v>
       </c>
       <c r="J15" s="11">
-        <v>1723</v>
+        <v>2021</v>
       </c>
       <c r="K15" s="11">
-        <v>2021</v>
+        <v>1121</v>
       </c>
       <c r="L15" s="11">
-        <v>1121</v>
+        <v>-3142</v>
       </c>
       <c r="M15" s="11">
-        <v>-3142</v>
+        <v>7877</v>
       </c>
       <c r="N15" s="11">
-        <v>7877</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>5645</v>
+        <v>3123</v>
       </c>
       <c r="F16" s="9">
-        <v>3123</v>
+        <v>2999</v>
       </c>
       <c r="G16" s="9">
-        <v>2999</v>
+        <v>2643</v>
       </c>
       <c r="H16" s="9">
-        <v>2643</v>
+        <v>2941</v>
       </c>
       <c r="I16" s="9">
-        <v>2941</v>
+        <v>5597</v>
       </c>
       <c r="J16" s="9">
-        <v>5597</v>
+        <v>39201</v>
       </c>
       <c r="K16" s="9">
-        <v>39201</v>
+        <v>-30448</v>
       </c>
       <c r="L16" s="9">
-        <v>-30448</v>
+        <v>-8753</v>
       </c>
       <c r="M16" s="9">
-        <v>-8753</v>
+        <v>18690</v>
       </c>
       <c r="N16" s="9">
-        <v>18690</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>76275</v>
+        <v>81943</v>
       </c>
       <c r="F17" s="11">
-        <v>81943</v>
+        <v>71309</v>
       </c>
       <c r="G17" s="11">
-        <v>71309</v>
+        <v>77261</v>
       </c>
       <c r="H17" s="11">
-        <v>77261</v>
+        <v>78509</v>
       </c>
       <c r="I17" s="11">
-        <v>78509</v>
+        <v>269853</v>
       </c>
       <c r="J17" s="11">
-        <v>269853</v>
+        <v>110977</v>
       </c>
       <c r="K17" s="11">
-        <v>110977</v>
+        <v>132394</v>
       </c>
       <c r="L17" s="11">
-        <v>132394</v>
+        <v>-243371</v>
       </c>
       <c r="M17" s="11">
-        <v>-243371</v>
+        <v>763265</v>
       </c>
       <c r="N17" s="11">
-        <v>761165</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>197376</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1070,81 +1070,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>21261</v>
+        <v>147053</v>
       </c>
       <c r="F19" s="11">
-        <v>147053</v>
+        <v>58608</v>
       </c>
       <c r="G19" s="11">
-        <v>58608</v>
+        <v>80974</v>
       </c>
       <c r="H19" s="11">
-        <v>80974</v>
+        <v>93127</v>
       </c>
       <c r="I19" s="11">
-        <v>93127</v>
+        <v>-40090</v>
       </c>
       <c r="J19" s="11">
-        <v>-40090</v>
+        <v>66595</v>
       </c>
       <c r="K19" s="11">
-        <v>66595</v>
+        <v>197070</v>
       </c>
       <c r="L19" s="11">
-        <v>197070</v>
+        <v>-263665</v>
       </c>
       <c r="M19" s="11">
-        <v>-263665</v>
+        <v>395911</v>
       </c>
       <c r="N19" s="11">
-        <v>273650</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>97948</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>131998</v>
+        <v>220322</v>
       </c>
       <c r="F20" s="13">
-        <v>220322</v>
+        <v>150360</v>
       </c>
       <c r="G20" s="13">
-        <v>150360</v>
+        <v>175803</v>
       </c>
       <c r="H20" s="13">
-        <v>175803</v>
+        <v>187869</v>
       </c>
       <c r="I20" s="13">
-        <v>187869</v>
+        <v>262965</v>
       </c>
       <c r="J20" s="13">
-        <v>262965</v>
+        <v>233335</v>
       </c>
       <c r="K20" s="13">
-        <v>233335</v>
+        <v>321735</v>
       </c>
       <c r="L20" s="13">
-        <v>321735</v>
+        <v>-555070</v>
       </c>
       <c r="M20" s="13">
-        <v>-555070</v>
+        <v>1262380</v>
       </c>
       <c r="N20" s="13">
-        <v>1138019</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>326316</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1159,7 +1159,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1174,7 +1174,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1189,7 +1189,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>25</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1241,7 +1241,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>26</v>
       </c>
@@ -1259,14 +1259,14 @@
       <c r="H26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="9">
+      <c r="I26" s="9">
         <v>128</v>
       </c>
-      <c r="K26" s="9" t="s">
-        <v>27</v>
+      <c r="J26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="9">
+        <v>128</v>
       </c>
       <c r="L26" s="9">
         <v>128</v>
@@ -1275,10 +1275,10 @@
         <v>128</v>
       </c>
       <c r="N26" s="9">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>28</v>
       </c>
@@ -1296,52 +1296,52 @@
       <c r="H27" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="11">
+      <c r="I27" s="11">
         <v>1571</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>27</v>
+      <c r="J27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="11">
+        <v>1560</v>
       </c>
       <c r="L27" s="11">
         <v>1560</v>
       </c>
       <c r="M27" s="11">
-        <v>1560</v>
+        <v>1502</v>
       </c>
       <c r="N27" s="11">
-        <v>1532</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F28" s="9">
+        <v>45</v>
+      </c>
+      <c r="G28" s="9">
+        <v>44</v>
+      </c>
+      <c r="H28" s="9">
         <v>47</v>
       </c>
-      <c r="G28" s="9">
-        <v>45</v>
-      </c>
-      <c r="H28" s="9">
-        <v>44</v>
-      </c>
-      <c r="I28" s="9">
-        <v>47</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="9">
+      <c r="I28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="9">
         <v>43</v>
       </c>
+      <c r="K28" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="L28" s="9" t="s">
         <v>27</v>
       </c>
@@ -1352,33 +1352,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>1505</v>
+        <v>1607</v>
       </c>
       <c r="F29" s="11">
+        <v>1685</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1664</v>
+      </c>
+      <c r="H29" s="11">
         <v>1607</v>
       </c>
-      <c r="G29" s="11">
-        <v>1685</v>
-      </c>
-      <c r="H29" s="11">
-        <v>1664</v>
-      </c>
-      <c r="I29" s="11">
-        <v>1607</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="11">
+      <c r="I29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="11">
         <v>1656</v>
       </c>
+      <c r="K29" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L29" s="11" t="s">
         <v>27</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1404,7 +1404,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1419,7 +1419,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1434,7 +1434,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
